--- a/PdPDM/PdPDM_ImportTables.xlsx
+++ b/PdPDM/PdPDM_ImportTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7005" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="5" r:id="rId1"/>
@@ -647,10 +647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Annotation</t>
   </si>
   <si>
@@ -659,6 +655,10 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1560,9 +1560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>203</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>38</v>
@@ -1632,10 +1632,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="1">
@@ -1650,7 +1650,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
@@ -1665,10 +1665,10 @@
         <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="1">
@@ -1684,7 +1684,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>38</v>
@@ -1699,10 +1699,10 @@
         <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="1">
@@ -1718,7 +1718,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>38</v>
@@ -1733,10 +1733,10 @@
         <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="1">
@@ -1752,7 +1752,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>121</v>
@@ -1767,10 +1767,10 @@
         <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9">
@@ -1786,7 +1786,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>121</v>
@@ -1801,10 +1801,10 @@
         <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="9">
@@ -1820,7 +1820,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>121</v>
@@ -1835,10 +1835,10 @@
         <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="8">
@@ -1854,7 +1854,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>121</v>
@@ -1869,10 +1869,10 @@
         <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="8">
@@ -1888,7 +1888,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>38</v>
@@ -1903,10 +1903,10 @@
         <v>133</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="8">
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A52" sqref="A52"/>

--- a/PdPDM/PdPDM_ImportTables.xlsx
+++ b/PdPDM/PdPDM_ImportTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7005"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7008" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="5" r:id="rId1"/>
@@ -592,9 +592,6 @@
     <t>Account_Type_Cd</t>
   </si>
   <si>
-    <t>Account_Source_Cd</t>
-  </si>
-  <si>
     <t>Acct_Current_Status_Type_Cd</t>
   </si>
   <si>
@@ -657,8 +654,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>U</t>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖凌域</t>
   </si>
 </sst>
 </file>
@@ -1560,29 +1560,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A10"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="50.25" customWidth="1"/>
-    <col min="13" max="13" width="25.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="50.21875" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1602,10 +1602,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
@@ -1615,9 +1615,9 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>38</v>
@@ -1632,10 +1632,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="1">
@@ -1648,9 +1648,9 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
@@ -1665,10 +1665,10 @@
         <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="1">
@@ -1682,9 +1682,9 @@
       <c r="K3"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>38</v>
@@ -1699,10 +1699,10 @@
         <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="1">
@@ -1716,9 +1716,9 @@
       <c r="K4"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>38</v>
@@ -1733,10 +1733,10 @@
         <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="1">
@@ -1750,9 +1750,9 @@
       <c r="K5"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>121</v>
@@ -1767,10 +1767,10 @@
         <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9">
@@ -1784,9 +1784,9 @@
       <c r="K6"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>121</v>
@@ -1801,10 +1801,10 @@
         <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="9">
@@ -1818,9 +1818,9 @@
       <c r="K7"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>121</v>
@@ -1835,10 +1835,10 @@
         <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="8">
@@ -1852,9 +1852,9 @@
       <c r="K8"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>121</v>
@@ -1869,10 +1869,10 @@
         <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="8">
@@ -1886,9 +1886,9 @@
       <c r="K9"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>38</v>
@@ -1903,10 +1903,10 @@
         <v>133</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="8">
@@ -1934,29 +1934,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="27.75" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <f>IF(C2=C1,A1+1,1)</f>
         <v>1</v>
@@ -2021,7 +2021,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A66" si="0">IF(C3=C2,A2+1,1)</f>
         <v>2</v>
@@ -2051,7 +2051,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2081,7 +2081,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2111,7 +2111,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2135,7 +2135,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2159,7 +2159,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2183,7 +2183,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2207,7 +2207,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2237,7 +2237,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2261,7 +2261,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2285,7 +2285,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2309,7 +2309,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2333,7 +2333,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2357,7 +2357,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2387,7 +2387,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2417,7 +2417,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2447,7 +2447,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2471,7 +2471,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2495,7 +2495,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2519,7 +2519,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2543,7 +2543,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2567,7 +2567,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2591,7 +2591,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2615,7 +2615,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2645,7 +2645,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2669,7 +2669,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2693,7 +2693,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2717,7 +2717,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2741,7 +2741,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2765,7 +2765,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2789,7 +2789,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2813,7 +2813,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2837,7 +2837,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2861,7 +2861,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2885,7 +2885,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2909,7 +2909,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2939,7 +2939,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2969,7 +2969,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2993,7 +2993,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3008,8 +3008,8 @@
       <c r="D41" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>186</v>
+      <c r="E41" t="s">
+        <v>207</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>98</v>
@@ -3017,7 +3017,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3033,7 +3033,7 @@
         <v>167</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>98</v>
@@ -3041,7 +3041,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3057,7 +3057,7 @@
         <v>168</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>98</v>
@@ -3065,7 +3065,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3089,7 +3089,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3113,7 +3113,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3129,7 +3129,7 @@
         <v>169</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>98</v>
@@ -3137,7 +3137,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3153,7 +3153,7 @@
         <v>170</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>98</v>
@@ -3161,7 +3161,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3185,7 +3185,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3209,7 +3209,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3233,7 +3233,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3257,7 +3257,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3281,7 +3281,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3297,7 +3297,7 @@
         <v>171</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>98</v>
@@ -3305,7 +3305,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3321,7 +3321,7 @@
         <v>172</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>98</v>
@@ -3329,7 +3329,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3345,7 +3345,7 @@
         <v>173</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>98</v>
@@ -3353,7 +3353,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3369,7 +3369,7 @@
         <v>174</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>98</v>
@@ -3377,7 +3377,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3393,7 +3393,7 @@
         <v>175</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>13</v>
@@ -3401,7 +3401,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3425,7 +3425,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3441,7 +3441,7 @@
         <v>176</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>98</v>
@@ -3449,7 +3449,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3479,7 +3479,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3503,7 +3503,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3519,7 +3519,7 @@
         <v>177</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>13</v>
@@ -3527,7 +3527,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3551,7 +3551,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3575,7 +3575,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3599,7 +3599,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3615,7 +3615,7 @@
         <v>178</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>13</v>
@@ -3623,7 +3623,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <f t="shared" ref="A67:A90" si="1">IF(C67=C66,A66+1,1)</f>
         <v>8</v>
@@ -3639,7 +3639,7 @@
         <v>179</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>98</v>
@@ -3647,7 +3647,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3663,7 +3663,7 @@
         <v>180</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>13</v>
@@ -3671,7 +3671,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3687,7 +3687,7 @@
         <v>176</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>98</v>
@@ -3695,7 +3695,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3725,7 +3725,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3755,7 +3755,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3785,7 +3785,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3801,7 +3801,7 @@
         <v>181</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>98</v>
@@ -3815,7 +3815,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3845,7 +3845,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3869,7 +3869,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3899,7 +3899,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3929,7 +3929,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3959,7 +3959,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3975,7 +3975,7 @@
         <v>182</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>98</v>
@@ -3989,7 +3989,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4019,7 +4019,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4043,7 +4043,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4067,7 +4067,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4091,7 +4091,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4115,7 +4115,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4139,7 +4139,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4169,7 +4169,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4199,7 +4199,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4215,7 +4215,7 @@
         <v>182</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>98</v>
@@ -4229,7 +4229,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4259,7 +4259,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
